--- a/testData/address_rule_test_data.xlsx
+++ b/testData/address_rule_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_address_rule" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="query_address_rule" sheetId="7" r:id="rId4"/>
     <sheet name="del_address_rule" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="120">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -379,22 +379,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cyyp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyadress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,26 +445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户cyyp绑定的adress5地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyq绑定的adress6地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyr绑定的adress7地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyys绑定的adress8地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您没有在ip：172.16.10.24下登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>至少需要选择一种地址规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -490,6 +454,26 @@
   </si>
   <si>
     <t>地址格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有在ip：172.16.10.23下登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyl绑定的adress5地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyym绑定的adress6地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyn绑定的adress7地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyo绑定的adress8地址规则没有登录的权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,35 +966,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XAO9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="41.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="35.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="47.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.88671875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16265" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:16265" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9">
@@ -1170,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9">
@@ -17473,7 +17457,7 @@
         <v>33</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9">
@@ -17530,7 +17514,7 @@
         <v>34</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9">
@@ -17580,7 +17564,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>35</v>
@@ -17589,13 +17573,13 @@
         <v>116</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="9">
         <v>2</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S6" s="9">
         <v>1</v>
@@ -17640,7 +17624,7 @@
         <v>28</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>36</v>
@@ -17649,13 +17633,13 @@
         <v>117</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="9">
         <v>2</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S7" s="9">
         <v>1</v>
@@ -17700,7 +17684,7 @@
         <v>29</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>37</v>
@@ -17709,13 +17693,13 @@
         <v>118</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S8" s="9">
         <v>1</v>
@@ -17759,8 +17743,8 @@
       <c r="L9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>97</v>
+      <c r="M9" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>38</v>
@@ -17769,13 +17753,13 @@
         <v>119</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="9">
         <v>2</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>97</v>
+      <c r="R9" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="S9" s="9">
         <v>1</v>
@@ -17799,19 +17783,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17864,7 +17848,7 @@
         <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -17902,22 +17886,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -17945,7 +17929,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
@@ -17960,7 +17944,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="9">
@@ -17977,7 +17961,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
@@ -18065,7 +18049,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -18095,11 +18079,11 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
@@ -18115,7 +18099,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>66</v>
@@ -18126,7 +18110,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>67</v>
@@ -18137,7 +18121,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>68</v>
@@ -18169,12 +18153,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18205,13 +18189,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
@@ -18219,7 +18203,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -18233,7 +18217,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -18247,7 +18231,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -18261,7 +18245,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -18275,7 +18259,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -18289,7 +18273,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -18303,13 +18287,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>

--- a/testData/address_rule_test_data.xlsx
+++ b/testData/address_rule_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_address_rule" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="query_address_rule" sheetId="7" r:id="rId4"/>
     <sheet name="del_address_rule" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -457,10 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>您没有在ip：172.16.10.23下登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户cyyl绑定的adress5地址规则没有登录的权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -474,6 +470,10 @@
   </si>
   <si>
     <t>用户cyyo绑定的adress8地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有在ip：172.16.10.24下登录的权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,34 +967,34 @@
   <dimension ref="A1:XAO9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="47.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="35.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.88671875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="47.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16265" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:16265" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -17570,10 +17570,10 @@
         <v>35</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="9">
         <v>2</v>
@@ -17630,10 +17630,10 @@
         <v>36</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="9">
         <v>2</v>
@@ -17690,10 +17690,10 @@
         <v>37</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
@@ -17750,10 +17750,10 @@
         <v>38</v>
       </c>
       <c r="O9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="Q9" s="9">
         <v>2</v>
@@ -17783,19 +17783,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17890,18 +17890,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -18079,11 +18079,11 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
@@ -18153,12 +18153,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
